--- a/docs/assets/files/diquoks Hardware.xlsx
+++ b/docs/assets/files/diquoks Hardware.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diquoks\WebstormProjects\diquoks-web\docs\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD19B7F-EF42-415E-8605-AB196F3DE598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55240A05-9A84-46E8-8A76-0C940E9E8A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7C10E01-31FD-4962-AF61-7DF05D51941A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7C10E01-31FD-4962-AF61-7DF05D51941A}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -114,9 +114,6 @@
     <t>ZET GAMING Renegade</t>
   </si>
   <si>
-    <t>Edifier P180 Plus</t>
-  </si>
-  <si>
     <t>Fifine K680</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>https://www.dns-shop.ru/product/43dd786b6094ed20/korpus-ardor-gaming-rare-minicase-ms3-mesh-bg-argb--cernyj/</t>
   </si>
   <si>
-    <t>https://www.dns-shop.ru/product/3582b43f38c5ed20/provodnye-nausniki-edifier-p180-plus-belyj/</t>
-  </si>
-  <si>
     <t>https://www.dns-shop.ru/product/778ee96062a93332/mikrofon-fifine-k680-cernyj/</t>
   </si>
   <si>
@@ -241,6 +235,12 @@
   </si>
   <si>
     <t>https://www.dns-shop.ru/product/e59501888d17d9cb/blok-pitania-deepcool-gamerstorm-pk700d-r-pk700d-fa0b-wgeu-cernyj/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/9637cf602c44ed20/provodnye-nausniki-apple-earpods-35-mm-belyj/</t>
+  </si>
+  <si>
+    <t>Apple EarPods</t>
   </si>
 </sst>
 </file>
@@ -483,9 +483,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -495,6 +522,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -503,57 +554,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -879,504 +879,504 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="7"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="10">
+        <v>13499</v>
+      </c>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="7">
+        <v>53499</v>
+      </c>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6399</v>
+      </c>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7199</v>
+      </c>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2699</v>
+      </c>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="7">
+        <v>5799</v>
+      </c>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="7">
+        <v>4899</v>
+      </c>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="7">
+        <v>4999</v>
+      </c>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2450</v>
+      </c>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="29">
-        <v>13499</v>
-      </c>
-      <c r="J2" s="30"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="18">
-        <v>53499</v>
-      </c>
-      <c r="J3" s="19"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="8" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="7">
+        <v>3599</v>
+      </c>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4197</v>
+      </c>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="7">
+        <v>199</v>
+      </c>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="7">
+        <v>999</v>
+      </c>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3590</v>
+      </c>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1850</v>
+      </c>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2899</v>
+      </c>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="18">
-        <v>6399</v>
-      </c>
-      <c r="J4" s="19"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="18">
-        <v>7199</v>
-      </c>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="8" t="s">
+      <c r="I19" s="7">
+        <v>1683</v>
+      </c>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="7">
+        <v>15199</v>
+      </c>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="7">
+        <v>4999</v>
+      </c>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="18">
-        <v>2699</v>
-      </c>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="18">
-        <v>5799</v>
-      </c>
-      <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="18">
-        <v>4899</v>
-      </c>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="18">
-        <v>4999</v>
-      </c>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="18">
-        <v>2450</v>
-      </c>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="18">
-        <v>3599</v>
-      </c>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="18">
-        <v>4197</v>
-      </c>
-      <c r="J13" s="19"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="18">
-        <v>199</v>
-      </c>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="18">
-        <v>999</v>
-      </c>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="18">
-        <v>3590</v>
-      </c>
-      <c r="J16" s="19"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="18">
-        <v>1299</v>
-      </c>
-      <c r="J17" s="19"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="18">
-        <v>2899</v>
-      </c>
-      <c r="J18" s="19"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="18">
-        <v>1683</v>
-      </c>
-      <c r="J19" s="19"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="18">
-        <v>15199</v>
-      </c>
-      <c r="J20" s="19"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="19"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I22" s="18">
-        <v>4999</v>
-      </c>
-      <c r="J22" s="19"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="25">
+      <c r="I23" s="20">
         <v>2250</v>
       </c>
-      <c r="J23" s="26"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="20">
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="12">
         <f>SUM(I2:J23)</f>
-        <v>142355</v>
-      </c>
-      <c r="J24" s="21"/>
+        <v>142906</v>
+      </c>
+      <c r="J24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C12:G12"/>
@@ -1393,32 +1393,32 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/docs/assets/files/diquoks Hardware.xlsx
+++ b/docs/assets/files/diquoks Hardware.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diquoks\WebstormProjects\diquoks-web\docs\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55240A05-9A84-46E8-8A76-0C940E9E8A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218A9D9D-5B28-43FA-8150-462B19AFCA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7C10E01-31FD-4962-AF61-7DF05D51941A}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>Сетевой адаптер</t>
   </si>
   <si>
-    <t>ZET GAMING Renegade</t>
-  </si>
-  <si>
     <t>Fifine K680</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>https://www.dns-shop.ru/product/778ee96062a93332/mikrofon-fifine-k680-cernyj/</t>
   </si>
   <si>
-    <t>https://www.dns-shop.ru/product/d3112da35d0e3332/mys-provodnaa-zet-gaming-renegade--cernyj/</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -241,6 +235,12 @@
   </si>
   <si>
     <t>Apple EarPods</t>
+  </si>
+  <si>
+    <t>IO Aurora Amethyst</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/io-by-red-square-aurora-besprovodnaya-igrovaya-mysh-fioletovaya-1836154508/</t>
   </si>
 </sst>
 </file>
@@ -483,77 +483,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -873,510 +873,510 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="29">
+        <v>13499</v>
+      </c>
+      <c r="J2" s="30"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="18">
+        <v>53499</v>
+      </c>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="18">
+        <v>6399</v>
+      </c>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="18">
+        <v>7199</v>
+      </c>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="18">
+        <v>2699</v>
+      </c>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="18">
+        <v>5799</v>
+      </c>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="18">
+        <v>4899</v>
+      </c>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="18">
+        <v>4999</v>
+      </c>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="18">
+        <v>2450</v>
+      </c>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="10">
-        <v>13499</v>
-      </c>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="7">
-        <v>53499</v>
-      </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="17" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="18">
+        <v>3599</v>
+      </c>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="18">
+        <v>4197</v>
+      </c>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="18">
+        <v>199</v>
+      </c>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="18">
+        <v>3390</v>
+      </c>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="18">
+        <v>3590</v>
+      </c>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="18">
+        <v>1850</v>
+      </c>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="18">
+        <v>2899</v>
+      </c>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="7">
-        <v>6399</v>
-      </c>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="7">
-        <v>7199</v>
-      </c>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="17" t="s">
+      <c r="I19" s="18">
+        <v>1683</v>
+      </c>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="18">
+        <v>15199</v>
+      </c>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="18">
+        <v>4999</v>
+      </c>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2699</v>
-      </c>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5799</v>
-      </c>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="7">
-        <v>4899</v>
-      </c>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="7">
-        <v>4999</v>
-      </c>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2450</v>
-      </c>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3599</v>
-      </c>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4197</v>
-      </c>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="7">
-        <v>199</v>
-      </c>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="7">
-        <v>999</v>
-      </c>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3590</v>
-      </c>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1850</v>
-      </c>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="7">
-        <v>2899</v>
-      </c>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1683</v>
-      </c>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="7">
-        <v>15199</v>
-      </c>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="7">
-        <v>4999</v>
-      </c>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="20">
+      <c r="I23" s="25">
         <v>2250</v>
       </c>
-      <c r="J23" s="21"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="12">
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="20">
         <f>SUM(I2:J23)</f>
-        <v>142906</v>
-      </c>
-      <c r="J24" s="13"/>
+        <v>145297</v>
+      </c>
+      <c r="J24" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C12:G12"/>
@@ -1393,32 +1393,32 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
